--- a/text_classification_hatespeech/TFIDF_DAI/ExpResults.xlsx
+++ b/text_classification_hatespeech/TFIDF_DAI/ExpResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/text_classification_hatespeech/TFIDF_DAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2115B4F4-EFF3-A548-855F-51B6300983E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1ECFD-3E27-8047-ABEC-65E316294F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48460" yWindow="2140" windowWidth="25080" windowHeight="15200" activeTab="1" xr2:uid="{B85A5B00-425B-9B4E-81D5-4701A4036D94}"/>
+    <workbookView xWindow="7820" yWindow="2980" windowWidth="25080" windowHeight="15200" activeTab="1" xr2:uid="{B85A5B00-425B-9B4E-81D5-4701A4036D94}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_TFIDF" sheetId="2" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E11"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1028,7 +1028,7 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1150,7 +1150,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>1.3564023389340079E-2</v>
+        <v>1.35640233893401E-2</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="21" thickBot="1">
